--- a/ad_hoc/VBA_value_scoring/test.xlsx
+++ b/ad_hoc/VBA_value_scoring/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mail\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807B916A-E6C1-416C-B597-B79E5ABE440F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6269250C-A9A2-4492-8C97-3B70FF2EADA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -30,12 +30,30 @@
   <si>
     <t>*</t>
   </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>finish</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>checking myself area</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,6 +65,22 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -58,13 +92,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="-0.249977111117893"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -96,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -104,8 +138,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -409,210 +451,254 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A2:F83"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="17.5703125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="4"/>
+    <col min="7" max="10" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
         <v>0.12</v>
       </c>
-      <c r="E3">
-        <v>-0.11</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="F3" s="4">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>0.17</v>
       </c>
-      <c r="E4">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="4">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>0.24</v>
       </c>
-      <c r="E5">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="9">
         <v>0.27</v>
       </c>
-      <c r="E6">
-        <v>0.04</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>0.21</v>
       </c>
-      <c r="E7">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>0.25</v>
       </c>
-      <c r="E8">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="4">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>0.19</v>
       </c>
-      <c r="E9">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="4">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>0.18</v>
       </c>
-      <c r="E10">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="4">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>0.2</v>
       </c>
-      <c r="E11">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="4">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E12">
-        <v>0.05</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F12" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D14">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10</v>
       </c>
       <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>0.22</v>
       </c>
-      <c r="E15">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="F15" s="4">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>11</v>
       </c>
       <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>0.23</v>
       </c>
-      <c r="E16">
-        <v>-0.03</v>
+      <c r="F16" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -622,11 +708,11 @@
       <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>0.25</v>
       </c>
-      <c r="E17">
-        <v>-0.01</v>
+      <c r="F17" s="4">
+        <v>0.02</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -636,11 +722,11 @@
       <c r="B18">
         <v>14</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>0.19</v>
       </c>
-      <c r="E18">
-        <v>-7.0000000000000007E-2</v>
+      <c r="F18" s="4">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -650,13 +736,18 @@
       <c r="B19">
         <v>15</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="7">
         <v>0.17</v>
       </c>
-      <c r="E19">
-        <v>-0.09</v>
-      </c>
-      <c r="F19" s="3"/>
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="F19" s="4">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -665,11 +756,11 @@
       <c r="B20">
         <v>16</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>0.21</v>
       </c>
-      <c r="E20">
-        <v>-0.05</v>
+      <c r="F20" s="4">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -679,11 +770,11 @@
       <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E21">
-        <v>0.02</v>
+      <c r="F21" s="4">
+        <v>0.05</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -693,13 +784,12 @@
       <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="9">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E22">
-        <v>0.03</v>
-      </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="4">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -708,17 +798,26 @@
       <c r="B23">
         <v>19</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>0.25</v>
       </c>
-      <c r="E23">
-        <v>-0.01</v>
+      <c r="D23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.02</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="D24">
-        <v>24</v>
+      <c r="D24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="4">
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -728,11 +827,14 @@
       <c r="B25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D25">
-        <v>25</v>
+      <c r="D25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="4">
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -742,13 +844,18 @@
       <c r="B26">
         <v>20</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="9">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E26">
-        <v>0.06</v>
-      </c>
-      <c r="F26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -757,11 +864,11 @@
       <c r="B27">
         <v>21</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>0.19</v>
       </c>
-      <c r="E27">
-        <v>-0.04</v>
+      <c r="F27" s="4">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -771,11 +878,11 @@
       <c r="B28">
         <v>22</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>0.15</v>
       </c>
-      <c r="E28">
-        <v>-0.08</v>
+      <c r="F28" s="4">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -785,11 +892,11 @@
       <c r="B29">
         <v>23</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>0.19</v>
       </c>
-      <c r="E29">
-        <v>-0.04</v>
+      <c r="F29" s="4">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -799,11 +906,17 @@
       <c r="B30">
         <v>24</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="9">
         <v>0.27</v>
       </c>
-      <c r="E30">
-        <v>0.04</v>
+      <c r="D30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F30" s="4">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -813,13 +926,12 @@
       <c r="B31">
         <v>25</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="7">
         <v>0.12</v>
       </c>
-      <c r="E31">
-        <v>-0.11</v>
-      </c>
-      <c r="F31" s="3"/>
+      <c r="F31" s="4">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -828,11 +940,11 @@
       <c r="B32">
         <v>26</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>0.25</v>
       </c>
-      <c r="E32">
-        <v>0.02</v>
+      <c r="F32" s="4">
+        <v>0.05</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -842,11 +954,11 @@
       <c r="B33">
         <v>27</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>0.23</v>
       </c>
-      <c r="E33">
-        <v>0</v>
+      <c r="F33" s="4">
+        <v>0.03</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -856,29 +968,40 @@
       <c r="B34">
         <v>28</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E34">
-        <v>-0.09</v>
-      </c>
-      <c r="F34" s="3"/>
+      <c r="D34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F34" s="4">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="D35">
-        <v>35</v>
+      <c r="D35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="4">
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D36">
-        <v>36</v>
+      <c r="D36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="4">
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -888,11 +1011,17 @@
       <c r="B37">
         <v>29</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>0.19</v>
       </c>
-      <c r="E37">
-        <v>0</v>
+      <c r="D37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0.01</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -902,13 +1031,12 @@
       <c r="B38">
         <v>30</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E38">
-        <v>0.09</v>
-      </c>
-      <c r="F38" s="4"/>
+      <c r="F38" s="4">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -917,11 +1045,11 @@
       <c r="B39">
         <v>31</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>0.13</v>
       </c>
-      <c r="E39">
-        <v>-0.06</v>
+      <c r="F39" s="4">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -931,11 +1059,11 @@
       <c r="B40">
         <v>32</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="7">
         <v>0.12</v>
       </c>
-      <c r="E40">
-        <v>-7.0000000000000007E-2</v>
+      <c r="F40" s="4">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -945,11 +1073,11 @@
       <c r="B41">
         <v>33</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <v>0.19</v>
       </c>
-      <c r="E41">
-        <v>0</v>
+      <c r="F41" s="4">
+        <v>0.01</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -959,11 +1087,11 @@
       <c r="B42">
         <v>34</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
         <v>0.19</v>
       </c>
-      <c r="E42">
-        <v>0</v>
+      <c r="F42" s="4">
+        <v>0.01</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -973,13 +1101,12 @@
       <c r="B43">
         <v>35</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="7">
         <v>0.1</v>
       </c>
-      <c r="E43">
-        <v>-0.09</v>
-      </c>
-      <c r="F43" s="3"/>
+      <c r="F43" s="4">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
@@ -988,11 +1115,11 @@
       <c r="B44">
         <v>36</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="3">
         <v>0.17</v>
       </c>
-      <c r="E44">
-        <v>-0.02</v>
+      <c r="F44" s="4">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1002,11 +1129,11 @@
       <c r="B45">
         <v>37</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="7">
         <v>0.12</v>
       </c>
-      <c r="E45">
-        <v>-7.0000000000000007E-2</v>
+      <c r="F45" s="4">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1016,13 +1143,18 @@
       <c r="B46">
         <v>38</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="9">
         <v>0.27</v>
       </c>
-      <c r="E46">
-        <v>0.08</v>
-      </c>
-      <c r="F46" s="4"/>
+      <c r="D46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
@@ -1031,11 +1163,11 @@
       <c r="B47">
         <v>39</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="3">
         <v>0.2</v>
       </c>
-      <c r="E47">
-        <v>0.01</v>
+      <c r="F47" s="4">
+        <v>0.02</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1045,13 +1177,12 @@
       <c r="B48">
         <v>40</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E48">
-        <v>0.09</v>
-      </c>
-      <c r="F48" s="4"/>
+      <c r="F48" s="4">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
@@ -1060,11 +1191,11 @@
       <c r="B49">
         <v>41</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E49">
-        <v>-0.05</v>
+      <c r="F49" s="4">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1074,11 +1205,11 @@
       <c r="B50">
         <v>42</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
         <v>0.16</v>
       </c>
-      <c r="E50">
-        <v>-0.03</v>
+      <c r="F50" s="4">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1088,11 +1219,11 @@
       <c r="B51">
         <v>43</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="3">
         <v>0.22</v>
       </c>
-      <c r="E51">
-        <v>0.03</v>
+      <c r="F51" s="4">
+        <v>0.04</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1102,11 +1233,11 @@
       <c r="B52">
         <v>44</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E52">
-        <v>-0.05</v>
+      <c r="F52" s="4">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1116,11 +1247,11 @@
       <c r="B53">
         <v>45</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="7">
         <v>0.12</v>
       </c>
-      <c r="E53">
-        <v>-7.0000000000000007E-2</v>
+      <c r="F53" s="4">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1130,13 +1261,12 @@
       <c r="B54">
         <v>46</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="9">
         <v>0.27</v>
       </c>
-      <c r="E54">
-        <v>0.08</v>
-      </c>
-      <c r="F54" s="4"/>
+      <c r="F54" s="4">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
@@ -1145,28 +1275,40 @@
       <c r="B55">
         <v>47</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="3">
         <v>0.15</v>
       </c>
-      <c r="E55">
-        <v>-0.04</v>
+      <c r="D55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F55" s="4">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="D56">
-        <v>56</v>
+      <c r="D56" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D57">
-        <v>57</v>
+      <c r="D57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="4">
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1176,11 +1318,17 @@
       <c r="B58">
         <v>48</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="3">
         <v>0.21</v>
       </c>
-      <c r="E58">
-        <v>-0.01</v>
+      <c r="D58" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0.01</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1190,11 +1338,11 @@
       <c r="B59">
         <v>49</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="9">
         <v>0.23</v>
       </c>
-      <c r="E59">
-        <v>0.01</v>
+      <c r="F59" s="4">
+        <v>0.03</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1204,11 +1352,11 @@
       <c r="B60">
         <v>50</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="3">
         <v>0.2</v>
       </c>
-      <c r="E60">
-        <v>-0.02</v>
+      <c r="F60" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1218,11 +1366,11 @@
       <c r="B61">
         <v>51</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="3">
         <v>0.21</v>
       </c>
-      <c r="E61">
-        <v>-0.01</v>
+      <c r="F61" s="4">
+        <v>0.01</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1232,13 +1380,12 @@
       <c r="B62">
         <v>52</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="9">
         <v>0.24</v>
       </c>
-      <c r="E62">
-        <v>0.02</v>
-      </c>
-      <c r="F62" s="4"/>
+      <c r="F62" s="4">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
@@ -1247,11 +1394,17 @@
       <c r="B63">
         <v>53</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="3">
         <v>0.18</v>
       </c>
-      <c r="E63">
-        <v>-0.04</v>
+      <c r="D63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F63" s="4">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1261,11 +1414,11 @@
       <c r="B64">
         <v>54</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="3">
         <v>0.2</v>
       </c>
-      <c r="E64">
-        <v>-0.02</v>
+      <c r="F64" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1275,13 +1428,12 @@
       <c r="B65">
         <v>55</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="7">
         <v>0.12</v>
       </c>
-      <c r="E65">
-        <v>-0.1</v>
-      </c>
-      <c r="F65" s="3"/>
+      <c r="F65" s="4">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
@@ -1290,11 +1442,11 @@
       <c r="B66">
         <v>56</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="3">
         <v>0.19</v>
       </c>
-      <c r="E66">
-        <v>-0.03</v>
+      <c r="F66" s="4">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1304,11 +1456,11 @@
       <c r="B67">
         <v>57</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="3">
         <v>0.2</v>
       </c>
-      <c r="E67">
-        <v>-0.02</v>
+      <c r="F67" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -1318,28 +1470,40 @@
       <c r="B68">
         <v>58</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="3">
         <v>0.19</v>
       </c>
-      <c r="E68">
-        <v>-0.03</v>
+      <c r="D68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="F68" s="4">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
-      <c r="D69">
-        <v>69</v>
+      <c r="D69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="4">
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D70">
-        <v>70</v>
+      <c r="D70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="4">
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -1349,11 +1513,17 @@
       <c r="B71">
         <v>59</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="3">
         <v>0.2</v>
       </c>
-      <c r="E71">
-        <v>-0.04</v>
+      <c r="D71" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="F71" s="4">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -1363,13 +1533,12 @@
       <c r="B72">
         <v>60</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="9">
         <v>0.25</v>
       </c>
-      <c r="E72">
-        <v>0.01</v>
-      </c>
-      <c r="F72" s="4"/>
+      <c r="F72" s="4">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
@@ -1378,13 +1547,12 @@
       <c r="B73">
         <v>61</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="7">
         <v>0.16</v>
       </c>
-      <c r="E73">
-        <v>-0.08</v>
-      </c>
-      <c r="F73" s="3"/>
+      <c r="F73" s="4">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
@@ -1393,11 +1561,11 @@
       <c r="B74">
         <v>62</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="3">
         <v>0.18</v>
       </c>
-      <c r="E74">
-        <v>-0.06</v>
+      <c r="F74" s="4">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -1407,13 +1575,12 @@
       <c r="B75">
         <v>63</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="9">
         <v>0.25</v>
       </c>
-      <c r="E75">
-        <v>0.01</v>
-      </c>
-      <c r="F75" s="4"/>
+      <c r="F75" s="4">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
@@ -1422,11 +1589,11 @@
       <c r="B76">
         <v>64</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="3">
         <v>0.23</v>
       </c>
-      <c r="E76">
-        <v>-0.01</v>
+      <c r="F76" s="4">
+        <v>0.01</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -1436,11 +1603,17 @@
       <c r="B77">
         <v>65</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="3">
         <v>0.22</v>
       </c>
-      <c r="E77">
-        <v>-0.02</v>
+      <c r="D77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F77" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -1450,11 +1623,11 @@
       <c r="B78">
         <v>66</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="3">
         <v>0.22</v>
       </c>
-      <c r="E78">
-        <v>-0.02</v>
+      <c r="F78" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -1464,11 +1637,11 @@
       <c r="B79">
         <v>67</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="3">
         <v>0.23</v>
       </c>
-      <c r="E79">
-        <v>-0.01</v>
+      <c r="F79" s="4">
+        <v>0.01</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -1478,11 +1651,11 @@
       <c r="B80">
         <v>68</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="3">
         <v>0.23</v>
       </c>
-      <c r="E80">
-        <v>-0.01</v>
+      <c r="F80" s="4">
+        <v>0.01</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -1492,11 +1665,11 @@
       <c r="B81">
         <v>69</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="3">
         <v>0.2</v>
       </c>
-      <c r="E81">
-        <v>-0.04</v>
+      <c r="F81" s="4">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -1506,20 +1679,31 @@
       <c r="B82">
         <v>70</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="9">
         <v>0.25</v>
       </c>
-      <c r="E82">
-        <v>0.01</v>
-      </c>
-      <c r="F82" s="4"/>
+      <c r="D82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F82" s="4">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D83">
-        <v>83</v>
+      <c r="D83" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="4">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>